--- a/empirical_experiment_material/Responses/Session 2 - Questionnaire (Responses).xlsx
+++ b/empirical_experiment_material/Responses/Session 2 - Questionnaire (Responses).xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lola\Desktop\Gits\beliefFusionPlugin\empirical_experiment_material\Responses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64357E82-A021-4AAB-AC85-2E36B3AB970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>Please rate how difficult using the UML profile you think it is</t>
   </si>
   <si>
@@ -38,36 +55,24 @@
     <t>Do you give your consent to record audio during the group work session?</t>
   </si>
   <si>
-    <t>nmv@uma.es</t>
-  </si>
-  <si>
     <t>Bastante expresivo</t>
   </si>
   <si>
     <t>Un belief a un objeto habla sobre la creencia en ese objeto, no solo de su existencia, sino también en el valor de sus slots. En el caso de un link, es creencia en la existencia de esa relación, y en el valor de un atributo, implica creencia en que ese valor sea correcto</t>
   </si>
   <si>
-    <t>laurapanizo@uma.es</t>
-  </si>
-  <si>
     <t>I think this profile allows us, for instance, to represent vague or erroneous values assigned to attributes. Applied to objects and links I'm not sure.</t>
   </si>
   <si>
     <t>For objects, it means if the object exists or not. For values of attributes, it means if we are sure about the given value. In the case of links, it can express the probability that this relation exists.</t>
   </si>
   <si>
-    <t>gapriser@gmail.com</t>
-  </si>
-  <si>
     <t>A nivel probabilístico me parece muy expresivo, pudiendo añadir una probabilidad a b, d y u, pero creo que no sabría qué valores indicar en cada uno de ellos, a excepción del valor 'a'.</t>
   </si>
   <si>
     <t>Entiendo que siempre indicas la veracidad que tiene cada uno en cada caso. Es decir, planteas la veracidad de la instancia; de la existencia de la relación; o del valor concreto del atributo de una estancia.</t>
   </si>
   <si>
-    <t>miggalrui@uma.es</t>
-  </si>
-  <si>
     <t>Cuando asignas el belief a un objeto, estás relacionando su credibilidad de existencia, en comparacion con el valor de un atributo que lo que haces es ver la posibilidad de este. A su vez en el enlace estas asignando la existencia de esta relacion.</t>
   </si>
   <si>
@@ -80,9 +85,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>dbandera@lcc.uma.es</t>
-  </si>
-  <si>
     <t>Asignarlo a un objeto aplica esa certeza a que el objeto en sí exista o no. Aplicárselo a una relación indica la creencia sobre que esa relación exista o no, y aplicarlo al atributo de un objeto indica la creencia sobre que ese atributo sea verdad o no.</t>
   </si>
   <si>
@@ -92,9 +94,6 @@
     <t>David Bandera García</t>
   </si>
   <si>
-    <t>rgarcialuque@lcc.uma.es</t>
-  </si>
-  <si>
     <t>Cuando asignas una creencia a un objeto estás dudando o no de la existencia del mismo, mientras que en un enlace muestras tu incertidumbre acerca de si esa relación entre ambos existe o la intensidad entre ambos. Y finalmente, para un atributo enfatizas la corrección del mismo.</t>
   </si>
   <si>
@@ -102,9 +101,6 @@
   </si>
   <si>
     <t>Rafael García Luque</t>
-  </si>
-  <si>
-    <t>juanpalmaborda@hotmail.com</t>
   </si>
   <si>
     <t>Para mi la diferencia radica en definir sobre lo que estas dudando, si es de un atributo, del objeto entero, o de una relacion concreta.
@@ -120,9 +116,6 @@
     <t>Juan Palma Borda</t>
   </si>
   <si>
-    <t>juliarobles1999@gmail.com</t>
-  </si>
-  <si>
     <t>Si la opinión se asigna a una clase indica la creencia del agente sobre la existencia de la entidad mientras que si se asigna a un atributo indicamos cómo de cierto consideramos el valor de dicho atributo. Por otro lado, si se asigna a una relación estamos indicando nuestra opinión sobre si realmente existe dicha relación entre los elementos.</t>
   </si>
   <si>
@@ -132,9 +125,6 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>mfernandez@uma.es</t>
-  </si>
-  <si>
     <t>Un objeto es la confianza de que exista el propio objeto, un link que exista la relación entre los objetos, y en un atributo que el valor asignado sea cierto ono</t>
   </si>
   <si>
@@ -142,9 +132,6 @@
   </si>
   <si>
     <t>Manuel Fernandez Bertoa</t>
-  </si>
-  <si>
-    <t>moriolh@uoc.edu</t>
   </si>
   <si>
     <t>- Assigning  a belief to an object is the belief that the object correctly exists (in the example, that the Ark of Covenant is located in the Ruins MountCalvary)
@@ -158,9 +145,6 @@
     <t>Marc Oriol Hilari</t>
   </si>
   <si>
-    <t>mgomezvazqu@uoc.edu</t>
-  </si>
-  <si>
     <t>A belief is assigned to an object when you express your opinion about the existence/content of that object. 
 A belief is assigned to a link when you express your opinion about the relationship between 2 objects.
 A belief is assigned to an attribute when you express your opinion about the reliability of its value.</t>
@@ -172,9 +156,6 @@
     <t>Marcos Gomez Vazquez</t>
   </si>
   <si>
-    <t>jginermi@uoc.edu</t>
-  </si>
-  <si>
     <t>You Believe in the existance of the overall object, in the rightness of a value in a attribute of the object, and your belieaves in the existance of the relationship between two objects. As example, I do bealieve in the existance of Mount Noubu, but I do not beliave the XCoord is right, and I fully believe that is placed in Jordania.</t>
   </si>
   <si>
@@ -184,9 +165,6 @@
     <t>Joan Giner Miguelez</t>
   </si>
   <si>
-    <t>ialfonsod@uoc.edu</t>
-  </si>
-  <si>
     <t>Los beliefs de una instancia de objeto y tambien de un link son para opinar sobre su existencia. Los beliefs asignados a un atributo son para opinar sobre un valor especifico del atributo.</t>
   </si>
   <si>
@@ -196,18 +174,12 @@
     <t>Iván David Alfonso Díaz</t>
   </si>
   <si>
-    <t>ebatot@uoc.edu</t>
-  </si>
-  <si>
     <t>Well, the nature of the target is different. Is it about the certainty of a boolean value (value!) or about the actual existence of an object ? In the case of the thrird historian's asumptions, there could be a (dis)belief on the very existence of the sources, or of the ruins. The problem is deeply different depending on the nature. Boolean and Real have computational solutions (integral, and other way to mix up probabilities) but what about the impact of the (in)existence of an object ?</t>
   </si>
   <si>
     <t>Edouard</t>
   </si>
   <si>
-    <t>mgm7cns@uma.es</t>
-  </si>
-  <si>
     <t>When we assign beliefs to objects what we try to say is if that object exists or not meanwhile when we assign beliefs to attribute values we express how sure we are about the value. Finally, when we assign a belief to a link we are expressing if that link really exists or not.</t>
   </si>
   <si>
@@ -217,9 +189,6 @@
     <t>María Gálvez Manceras</t>
   </si>
   <si>
-    <t>apvereda@uma.es</t>
-  </si>
-  <si>
     <t>Al asignarla a un objeto estamos expresando nuestra opinion sobre la existencia de ese objeto, a un link sobre la existencia de ese link, a un atributo expresamos nuestra opinion sobre su valor.</t>
   </si>
   <si>
@@ -227,9 +196,6 @@
   </si>
   <si>
     <t>Alejandro Pérez Vereda</t>
-  </si>
-  <si>
-    <t>carloscanal@uma.es</t>
   </si>
   <si>
     <t>Alasignarlo a un objeto nos refermos a la creencia sobre la existencia de ese objeto en cuestion, si es sobre un enlace a la exitencia de la relacion entre los obejtos enlazados, si es un atributo, a la creencia sobre los valores que representa</t>
@@ -253,26 +219,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
@@ -282,7 +251,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -292,56 +261,51 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -531,26 +495,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="14" width="21.57"/>
+    <col min="1" max="13" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,32 +539,27 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44509.777925682865</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -606,24 +568,21 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44509.77817733797</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.0</v>
+        <v>44509.778177337968</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -632,24 +591,21 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44509.77963927083</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4.0</v>
+        <v>44509.779639270833</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -658,455 +614,412 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44511.437973576394</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44511.43852674769</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+      <c r="B6" s="3">
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44511.439215011575</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
+      <c r="B7" s="3">
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44511.44273391204</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>44511.442733912038</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44511.4437903125</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44511.44930910879</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>44511.449309108793</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44518.50102256944</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>44518.501022569442</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44518.507240625</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>44518.507240624996</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44518.508508784726</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+      <c r="B13" s="3">
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44518.51131231482</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>44518.511312314818</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44518.51563421296</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>44518.515634212963</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44526.522875752315</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>61</v>
+      <c r="B16" s="3">
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44526.526216956016</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
+      <c r="B17" s="3">
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44526.53789604167</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>44526.537896041671</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1120,9 +1033,8 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1136,9 +1048,8 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1152,9 +1063,8 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1168,9 +1078,8 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1184,9 +1093,8 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1200,9 +1108,8 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1216,9 +1123,8 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1232,9 +1138,8 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1248,9 +1153,8 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1264,9 +1168,8 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1280,9 +1183,8 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1296,9 +1198,8 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1312,9 +1213,8 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1328,9 +1228,8 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1344,9 +1243,8 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1360,9 +1258,8 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1376,9 +1273,8 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1392,9 +1288,8 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1408,9 +1303,8 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1424,9 +1318,8 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1440,9 +1333,8 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1456,9 +1348,8 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1472,9 +1363,8 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1488,9 +1378,8 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1504,9 +1393,8 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1520,9 +1408,8 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1536,9 +1423,8 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1552,9 +1438,8 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1568,9 +1453,8 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1584,9 +1468,8 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1600,9 +1483,8 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1616,9 +1498,8 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1632,9 +1513,8 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1648,9 +1528,8 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1664,9 +1543,8 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1680,9 +1558,8 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1696,9 +1573,8 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1712,9 +1588,8 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1728,9 +1603,8 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1744,9 +1618,8 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1760,9 +1633,8 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1776,9 +1648,8 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1792,9 +1663,8 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1808,9 +1678,8 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1824,9 +1693,8 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64">
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1840,9 +1708,8 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1856,9 +1723,8 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1872,9 +1738,8 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1888,9 +1753,8 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1904,9 +1768,8 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1920,9 +1783,8 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1936,9 +1798,8 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1952,9 +1813,8 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1968,9 +1828,8 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1984,9 +1843,8 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2000,9 +1858,8 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2016,9 +1873,8 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2032,9 +1888,8 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2048,9 +1903,8 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2064,9 +1918,8 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2080,9 +1933,8 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2096,9 +1948,8 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2112,9 +1963,8 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2128,9 +1978,8 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2144,9 +1993,8 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-    </row>
-    <row r="84">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2160,9 +2008,8 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2176,9 +2023,8 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-    </row>
-    <row r="86">
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2192,9 +2038,8 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-    </row>
-    <row r="87">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2208,9 +2053,8 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2224,9 +2068,8 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2240,9 +2083,8 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2256,9 +2098,8 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2272,9 +2113,8 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-    </row>
-    <row r="92">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2288,9 +2128,8 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2304,9 +2143,8 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94">
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2320,9 +2158,8 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2336,9 +2173,8 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2352,9 +2188,8 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97">
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2368,9 +2203,8 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2384,9 +2218,8 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-    </row>
-    <row r="99">
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2400,9 +2233,8 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100">
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2416,9 +2248,8 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2432,9 +2263,8 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102">
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2448,9 +2278,8 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103">
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2464,9 +2293,8 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104">
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2480,9 +2308,8 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105">
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2496,9 +2323,8 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2512,9 +2338,8 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2528,9 +2353,8 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108">
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2544,9 +2368,8 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2560,9 +2383,8 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110">
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2576,9 +2398,8 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111">
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2592,9 +2413,8 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2608,9 +2428,8 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-    </row>
-    <row r="113">
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2624,9 +2443,8 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114">
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2640,9 +2458,8 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-    </row>
-    <row r="115">
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2656,9 +2473,8 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-    </row>
-    <row r="116">
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2672,9 +2488,8 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117">
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2688,9 +2503,8 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118">
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2704,44 +2518,44 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F5"/>
-    <hyperlink r:id="rId2" ref="F6"/>
-    <hyperlink r:id="rId3" ref="F7"/>
-    <hyperlink r:id="rId4" ref="F8"/>
-    <hyperlink r:id="rId5" ref="F9"/>
-    <hyperlink r:id="rId6" ref="F10"/>
-    <hyperlink r:id="rId7" ref="F11"/>
-    <hyperlink r:id="rId8" ref="F12"/>
-    <hyperlink r:id="rId9" ref="F13"/>
-    <hyperlink r:id="rId10" ref="F14"/>
-    <hyperlink r:id="rId11" ref="F16"/>
-    <hyperlink r:id="rId12" ref="F17"/>
-    <hyperlink r:id="rId13" ref="F18"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="88.5" customHeight="1">
+    <row r="1" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -2749,33 +2563,33 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B2" s="8">
-        <f>median('Form Responses 1'!C5:C18)</f>
+        <f>MEDIAN('Form Responses 1'!B5:B18)</f>
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <f>median('Form Responses 1'!D5:D18)</f>
+        <f>MEDIAN('Form Responses 1'!C5:C18)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B3" s="9">
+        <f>MODE('Form Responses 1'!B5:B18)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <f>MODE('Form Responses 1'!C5:C18)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <f>MODE('Form Responses 1'!D5:D18)</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>